--- a/source_data/uploaders/Minutes of tribunal meetings_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Minutes of tribunal meetings_hierarchy_aspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519EB79-1DE3-A141-B64D-78E6F334AE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E005D-ABFF-5649-B093-7767DFCA1E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="571">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -1663,9 +1663,6 @@
     <t>Series</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
     <t>item(s)</t>
   </si>
   <si>
@@ -1693,7 +1690,7 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Creation</t>
+    <t>creation</t>
   </si>
   <si>
     <t>1945-10-09</t>
@@ -1705,6 +1702,9 @@
     <t>inclusive</t>
   </si>
   <si>
+    <t>1945-10-09 to 1946-10-01</t>
+  </si>
+  <si>
     <t>inferred</t>
   </si>
   <si>
@@ -1714,7 +1714,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>Box</t>
+    <t>box</t>
   </si>
   <si>
     <t>16</t>
@@ -1751,7 +1751,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2099,7 +2098,7 @@
   <dimension ref="A1:HE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4887,23 +4886,11 @@
       <c r="K6" t="s">
         <v>545</v>
       </c>
-      <c r="BH6" t="s">
-        <v>547</v>
-      </c>
       <c r="BI6" t="s">
         <v>545</v>
       </c>
       <c r="BJ6" t="s">
-        <v>548</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:213" x14ac:dyDescent="0.2">
@@ -4911,37 +4898,25 @@
         <v>542</v>
       </c>
       <c r="E7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H7" t="s">
         <v>549</v>
       </c>
-      <c r="F7" t="s">
-        <v>549</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>550</v>
-      </c>
-      <c r="I7" t="s">
-        <v>551</v>
       </c>
       <c r="K7" t="s">
         <v>545</v>
       </c>
-      <c r="BH7" t="s">
-        <v>547</v>
-      </c>
       <c r="BI7" t="s">
         <v>545</v>
       </c>
       <c r="BJ7" t="s">
-        <v>548</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:213" x14ac:dyDescent="0.2">
@@ -4949,52 +4924,52 @@
         <v>542</v>
       </c>
       <c r="E8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F8" t="s">
         <v>552</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>553</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>554</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>555</v>
-      </c>
-      <c r="I8" t="s">
-        <v>556</v>
       </c>
       <c r="K8" t="s">
         <v>545</v>
       </c>
       <c r="AD8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE8" t="s">
         <v>557</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>558</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>559</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>560</v>
       </c>
       <c r="AI8" t="s">
         <v>561</v>
       </c>
-      <c r="BH8" t="s">
-        <v>547</v>
-      </c>
       <c r="BI8" t="s">
         <v>545</v>
       </c>
       <c r="BJ8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="BK8" t="s">
         <v>562</v>
       </c>
       <c r="BL8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BT8" t="s">
         <v>563</v>

--- a/source_data/uploaders/Minutes of tribunal meetings_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Minutes of tribunal meetings_hierarchy_aspace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E005D-ABFF-5649-B093-7767DFCA1E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1C2399-45D9-4A40-B6D5-B9B1F9FA1609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1714,7 +1714,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>box</t>
+    <t>Box</t>
   </si>
   <si>
     <t>16</t>
@@ -2098,7 +2098,7 @@
   <dimension ref="A1:HE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/source_data/uploaders/Minutes of tribunal meetings_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Minutes of tribunal meetings_hierarchy_aspace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marloelilongley/Projects/vt-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1C2399-45D9-4A40-B6D5-B9B1F9FA1609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F641C-D6FA-1D4D-A561-475054E723D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
